--- a/data/flow cytometry/e-coli/Lux-1/LuxR updated.xlsx
+++ b/data/flow cytometry/e-coli/Lux-1/LuxR updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qs-analysis\data\flow cytometry\e-coli\Lux-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{559FFEEC-16C8-4950-94E3-F5670C0DBEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7187A9-282F-4A69-81C1-BDB821AA1D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16260" yWindow="3540" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LasR" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="178">
   <si>
     <t>Tube numbering</t>
   </si>
@@ -390,12 +390,6 @@
     <t>07082021_Tube_001_002</t>
   </si>
   <si>
-    <t>07082021_Tube_001_004</t>
-  </si>
-  <si>
-    <t>07082021_Control NeoGreen_001 0.5I E-6</t>
-  </si>
-  <si>
     <t>07082021_Tube_002_003</t>
   </si>
   <si>
@@ -538,6 +532,36 @@
   </si>
   <si>
     <t>07082021_Tube_049_050</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>LuxR</t>
+  </si>
+  <si>
+    <t>0I 0A</t>
+  </si>
+  <si>
+    <t>0.005I e-6A</t>
+  </si>
+  <si>
+    <t>0.005I e-7A</t>
+  </si>
+  <si>
+    <t>0.005I e-8A</t>
+  </si>
+  <si>
+    <t>0.005I e-9A</t>
+  </si>
+  <si>
+    <t>0.005I e-10A</t>
+  </si>
+  <si>
+    <t>0.005I e-11A</t>
+  </si>
+  <si>
+    <t>0.005I e-12A</t>
   </si>
 </sst>
 </file>
@@ -559,7 +583,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,14 +596,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -639,6 +657,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -675,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2163,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2202,7 @@
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2185,576 +2212,693 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>681</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>682</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="D47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="D49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="D50" t="s">
         <v>169</v>
       </c>
     </row>

--- a/data/flow cytometry/e-coli/Lux-1/LuxR updated.xlsx
+++ b/data/flow cytometry/e-coli/Lux-1/LuxR updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qs-analysis\data\flow cytometry\e-coli\Lux-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7187A9-282F-4A69-81C1-BDB821AA1D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A0FE2D-D0D8-432A-8853-4670D16162CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16260" yWindow="3540" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="4080" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LasR" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="180">
   <si>
     <t>Tube numbering</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>0.005I e-12A</t>
+  </si>
+  <si>
+    <t>AHL</t>
+  </si>
+  <si>
+    <t>IPTG</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -705,6 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2190,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2209,7 @@
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2215,8 +2222,14 @@
       <c r="D1" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -2229,8 +2242,14 @@
       <c r="D2">
         <v>681</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>3</v>
       </c>
@@ -2243,8 +2262,14 @@
       <c r="D3">
         <v>682</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>4</v>
       </c>
@@ -2257,8 +2282,14 @@
       <c r="D4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -2271,8 +2302,14 @@
       <c r="D5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>6</v>
       </c>
@@ -2285,8 +2322,14 @@
       <c r="D6" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="12">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>7</v>
       </c>
@@ -2299,8 +2342,14 @@
       <c r="D7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="12">
+        <v>1E-8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>8</v>
       </c>
@@ -2313,8 +2362,14 @@
       <c r="D8" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="12">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>9</v>
       </c>
@@ -2327,8 +2382,14 @@
       <c r="D9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="12">
+        <v>1E-10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>10</v>
       </c>
@@ -2341,8 +2402,14 @@
       <c r="D10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="12">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>11</v>
       </c>
@@ -2355,8 +2422,14 @@
       <c r="D11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="12">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>13</v>
       </c>
@@ -2369,8 +2442,14 @@
       <c r="D12" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>14</v>
       </c>
@@ -2383,8 +2462,14 @@
       <c r="D13" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="12">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>15</v>
       </c>
@@ -2397,8 +2482,14 @@
       <c r="D14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="12">
+        <v>1E-8</v>
+      </c>
+      <c r="F14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>16</v>
       </c>
@@ -2411,8 +2502,14 @@
       <c r="D15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="12">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>17</v>
       </c>
@@ -2425,8 +2522,14 @@
       <c r="D16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="12">
+        <v>1E-10</v>
+      </c>
+      <c r="F16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>18</v>
       </c>
@@ -2439,8 +2542,14 @@
       <c r="D17" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="12">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="F17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>19</v>
       </c>
@@ -2453,8 +2562,14 @@
       <c r="D18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="12">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>20</v>
       </c>
@@ -2467,8 +2582,14 @@
       <c r="D19" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>21</v>
       </c>
@@ -2481,8 +2602,14 @@
       <c r="D20" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>22</v>
       </c>
@@ -2495,8 +2622,14 @@
       <c r="D21" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="12">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>23</v>
       </c>
@@ -2509,8 +2642,14 @@
       <c r="D22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="12">
+        <v>1E-8</v>
+      </c>
+      <c r="F22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>24</v>
       </c>
@@ -2523,8 +2662,14 @@
       <c r="D23" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="12">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>25</v>
       </c>
@@ -2537,8 +2682,14 @@
       <c r="D24" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="12">
+        <v>1E-10</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>26</v>
       </c>
@@ -2551,8 +2702,14 @@
       <c r="D25" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="12">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>27</v>
       </c>
@@ -2565,8 +2722,14 @@
       <c r="D26" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="12">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>28</v>
       </c>
@@ -2579,8 +2742,14 @@
       <c r="D27" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>29</v>
       </c>
@@ -2593,8 +2762,14 @@
       <c r="D28" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>30</v>
       </c>
@@ -2607,8 +2782,14 @@
       <c r="D29" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="12">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>31</v>
       </c>
@@ -2621,8 +2802,14 @@
       <c r="D30" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="12">
+        <v>1E-8</v>
+      </c>
+      <c r="F30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>32</v>
       </c>
@@ -2635,8 +2822,14 @@
       <c r="D31" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="12">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>33</v>
       </c>
@@ -2649,8 +2842,14 @@
       <c r="D32" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="12">
+        <v>1E-10</v>
+      </c>
+      <c r="F32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>34</v>
       </c>
@@ -2663,8 +2862,14 @@
       <c r="D33" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="12">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="F33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>35</v>
       </c>
@@ -2677,8 +2882,14 @@
       <c r="D34" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="12">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>36</v>
       </c>
@@ -2691,8 +2902,14 @@
       <c r="D35" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>37</v>
       </c>
@@ -2705,8 +2922,14 @@
       <c r="D36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>38</v>
       </c>
@@ -2719,8 +2942,14 @@
       <c r="D37" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="12">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>39</v>
       </c>
@@ -2733,8 +2962,14 @@
       <c r="D38" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="12">
+        <v>1E-8</v>
+      </c>
+      <c r="F38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>40</v>
       </c>
@@ -2747,8 +2982,14 @@
       <c r="D39" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="12">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>41</v>
       </c>
@@ -2761,8 +3002,14 @@
       <c r="D40" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="12">
+        <v>1E-10</v>
+      </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>42</v>
       </c>
@@ -2775,8 +3022,14 @@
       <c r="D41" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="12">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>43</v>
       </c>
@@ -2789,8 +3042,14 @@
       <c r="D42" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="12">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>44</v>
       </c>
@@ -2803,8 +3062,14 @@
       <c r="D43" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>46</v>
       </c>
@@ -2817,8 +3082,14 @@
       <c r="D44" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="12">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>47</v>
       </c>
@@ -2831,8 +3102,14 @@
       <c r="D45" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="12">
+        <v>1E-8</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>48</v>
       </c>
@@ -2845,8 +3122,14 @@
       <c r="D46" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="12">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>49</v>
       </c>
@@ -2859,8 +3142,14 @@
       <c r="D47" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="12">
+        <v>1E-10</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>50</v>
       </c>
@@ -2873,8 +3162,14 @@
       <c r="D48" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="12">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>51</v>
       </c>
@@ -2887,8 +3182,14 @@
       <c r="D49" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="12">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>52</v>
       </c>
@@ -2900,6 +3201,12 @@
       </c>
       <c r="D50" t="s">
         <v>169</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
